--- a/Panel_info/albacore_gtseq_panel_1.0.xlsx
+++ b/Panel_info/albacore_gtseq_panel_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddayan/FRA/albacore/Albacore_feature_selection/panel_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{442D497A-6054-2F4A-8451-074587CC67E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2BA0DF8B-2177-DD4C-A249-E3D6DE08232A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="2886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="2892">
   <si>
     <t>marker</t>
   </si>
@@ -8679,13 +8679,31 @@
   </si>
   <si>
     <t xml:space="preserve">Neutral SNPs attempt to capture genome wide variation and should be more suitable for estimating population genetic parameters that may be biased using other sets of SNPs: Neutral SNPs are based on the Vaux et al sequence data but used a different filtering approach. The empirical estimated site frequency spectrum indicated that the majority of the variants in among samples was substantially below the minor allele frequency cutoff used to generate the SNP dataset for the spatial and fst outlier analyses. To avoid biasing the SFS for the neutral SNPs, a new SNP dataset was called using less stringent filtering (minor allele count &gt; 3, instead of minor allele frequency &gt;5%). The "neutral" SNP dataset was then drawn from this dataset. A Kolmogorov-Smirnov test was used to check that the allele frequency sprectrum of the neutral SNP set used in this panel did not significantly differ from the allele frequency spectrum of the full SNP dataset. Details here: https://github.com/david-dayan/Albacore_feature_selection/blob/main/primer_design_input.html </t>
+  </si>
+  <si>
+    <t>Spatial Axes</t>
+  </si>
+  <si>
+    <t>Fst outliers</t>
+  </si>
+  <si>
+    <t>Using the SNP data from the Vaux et al ms and rough sampling position, Dayan conducted a spatial eigenanalysis that attempted to identify orthogonal aspects of spatial auotocorrelation (distance based Moran's eigenvector maps) that significantly explain genetic variation among samples (principal componets of genetic variaiton among samples). These axes of spatial-genetic autocorrelation were identified using redundancy analysis. 2 redundant axes were significant. The first (axis_1)  separated N from S Pacific samples. The second redundant axis (axis_2) was marginally significant and identified potential structure within the North Pacific. To choose features (SNPs) from this analysis a second RDA was conducted directly on SNPs and top outlier SNPs  were identified as those that loaded on the first two redundant axes with a z-score greater than 3. Further details at https://github.com/david-dayan/Albacore_feature_selection/blob/main/feature_selection_notebook.html</t>
+  </si>
+  <si>
+    <t>These markers are part of the 84 SNPs that were found in common across several Fst outlier analyses comparing N and S Pacific samples outlined in the Vaux et al ms</t>
+  </si>
+  <si>
+    <t>Vaux et al ms:</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/eva.13202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8816,6 +8834,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -9235,7 +9261,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -9278,15 +9304,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9311,8 +9332,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -9346,6 +9372,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -9678,62 +9705,62 @@
     <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -28447,14 +28474,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="69" customWidth="1"/>
   </cols>
@@ -28466,212 +28494,261 @@
     </row>
     <row r="2" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>2882</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>2872</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>2870</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>2871</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>2873</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>2874</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>2875</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>2876</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>2877</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>2878</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>2880</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>2879</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>2881</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="238" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="238" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
         <v>2884</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C28" s="15" t="s">
         <v>2885</v>
       </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" ht="221" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C8:C14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>